--- a/Texts/Город Сокровищ/Город/Часть города 1.xlsx
+++ b/Texts/Город Сокровищ/Город/Часть города 1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Раздел</t>
   </si>
@@ -121,6 +121,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Èàêäæí óôäà, [hero]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The beach isn\'t that way,\n[hero].</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0310.ssb</t>
+  </si>
+  <si>
+    <t>21, 25, 29</t>
+  </si>
+  <si>
+    <t>У вас в группе Манафи</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero], пляж не в той\nстороне.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hero], ðìÿç îå â óïê\nòóïñïîå.</t>
   </si>
 </sst>
 </file>
@@ -559,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,6 +801,28 @@
         <v>33</v>
       </c>
     </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
